--- a/TestData/Taf_data.xlsx
+++ b/TestData/Taf_data.xlsx
@@ -8,15 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\eclipse-workspace\Mohs10_TAF\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5571DC3E-F7AE-4E36-9754-40402678BDC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D09FF72-6C0A-4AF6-BBE5-EF8707B5EFB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{3D495333-99CD-4801-8811-63D99455E1DB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{3D495333-99CD-4801-8811-63D99455E1DB}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="URL" sheetId="6" r:id="rId3"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="7" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -28,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Email</t>
   </si>
@@ -52,6 +50,21 @@
   </si>
   <si>
     <t>C:\Users\DELL\eclipse-workspace\Mohs10_TAF\Screenshot_TAF\TAF_sc.png</t>
+  </si>
+  <si>
+    <t>https://testautomationforum.com/</t>
+  </si>
+  <si>
+    <t>Test Automation Forum (TAF) | LinkedIn</t>
+  </si>
+  <si>
+    <t>Test Automation Forum (TAF) - YouTube</t>
+  </si>
+  <si>
+    <t>Test Automation Forum (TAF) (@test_automation_forum) on Instagram</t>
+  </si>
+  <si>
+    <t>Test Automation Forum (@Testautoforum) / Twitter</t>
   </si>
 </sst>
 </file>
@@ -98,16 +111,21 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
+      <right/>
+      <top/>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -119,17 +137,6 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="thin">
         <color indexed="64"/>
@@ -461,87 +468,95 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{731DB7BE-A622-4C17-877F-7881CF50C218}">
-  <dimension ref="A1:B2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB1A06A0-9A40-4023-9FE9-97FC91751BCA}">
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="41.5703125" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1"/>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{86D893D3-44FB-4987-83F2-49EB9A22400D}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C395014-8E31-4796-83AB-2F5B8C4978BD}">
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="11.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB1A06A0-9A40-4023-9FE9-97FC91751BCA}">
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="68" customWidth="1"/>
+    <col min="2" max="2" width="92.7109375" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" customWidth="1"/>
+    <col min="4" max="4" width="32.85546875" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A3" r:id="rId1" xr:uid="{C3F61093-F112-44B4-AD24-8CB5F4EEAE4B}"/>
+    <hyperlink ref="D2" r:id="rId2" xr:uid="{8D72A1F9-AF8E-4A78-B1AE-306AE2DD4D78}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92EEBCDC-5720-48DC-BFE4-13C8A253820F}">
+  <dimension ref="A1:A4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="63.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>6</v>
+      <c r="A1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -549,53 +564,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9620EA34-303A-46FA-BA63-C1D3631D54CE}">
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="92.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="905cdd12-8ecb-4dd4-86e2-7184810aa58c" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101002BD10B0CD53EC149ADD3904E61BD6502" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2bbf827896097291c8c523847e698e55">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="a8e9706d-408f-43e0-b3b4-811f47f52ba1" xmlns:ns4="905cdd12-8ecb-4dd4-86e2-7184810aa58c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d70936a7ee5beb2520b3f6ce63f2e1af" ns3:_="" ns4:_="">
     <xsd:import namespace="a8e9706d-408f-43e0-b3b4-811f47f52ba1"/>
@@ -810,32 +779,24 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="905cdd12-8ecb-4dd4-86e2-7184810aa58c" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{54AFFD1F-1103-4CF4-BEFA-79C9A854A36E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="a8e9706d-408f-43e0-b3b4-811f47f52ba1"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="905cdd12-8ecb-4dd4-86e2-7184810aa58c"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{88386B48-0283-4C2F-99DB-EA8426CF9F6E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{77F39F0F-B3C6-44FC-9D80-5FB9BB667A23}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -852,4 +813,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{54AFFD1F-1103-4CF4-BEFA-79C9A854A36E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="a8e9706d-408f-43e0-b3b4-811f47f52ba1"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="905cdd12-8ecb-4dd4-86e2-7184810aa58c"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{88386B48-0283-4C2F-99DB-EA8426CF9F6E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/TestData/Taf_data.xlsx
+++ b/TestData/Taf_data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\eclipse-workspace\Mohs10_TAF\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D09FF72-6C0A-4AF6-BBE5-EF8707B5EFB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{670D4B0D-116D-4D6D-A60D-EF01FAB4D9B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{3D495333-99CD-4801-8811-63D99455E1DB}"/>
   </bookViews>
@@ -531,7 +531,7 @@
   <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
